--- a/7RMartSupermarket/src/test/resources/TestData.xlsx
+++ b/7RMartSupermarket/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
     <t>admin</t>
   </si>
   <si>
-    <t>admin1</t>
+    <t>user1</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/7RMartSupermarket/src/test/resources/TestData.xlsx
+++ b/7RMartSupermarket/src/test/resources/TestData.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SigninPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ManageNewsPage" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUsersPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageCategoriesPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>user1</t>
+  </si>
+  <si>
+    <t>Kerala sets new literacy record</t>
+  </si>
+  <si>
+    <t>Admin001</t>
+  </si>
+  <si>
+    <t>admin12345689</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>fruitKiwi</t>
+  </si>
+  <si>
+    <t>KiwiFruit</t>
   </si>
 </sst>
 </file>
@@ -344,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -385,4 +406,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>